--- a/config/testcases/Report_BE.PS04SpeakingCompetition(Clone).xlsx
+++ b/config/testcases/Report_BE.PS04SpeakingCompetition(Clone).xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="mNCH5hDCCRdSQQJXd8sfAhzgOA1zfy7zcJ8lYtn0Mig="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="VUqf25L50WZpmxeAKWJWz4JgySKEj8oJW5lY2W9y0Jk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>
@@ -57,7 +57,7 @@
     <t>TC1</t>
   </si>
   <si>
-    <t xml:space="preserve">Tìm game </t>
+    <t>Chọn avatar</t>
   </si>
   <si>
     <t>Y</t>
@@ -66,64 +66,58 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>Chọn avatar</t>
+    <t>Kiểm tra audio 1</t>
   </si>
   <si>
     <t>TC3</t>
   </si>
   <si>
-    <t>Kiểm tra audio 1</t>
+    <t>Kiểm tra text 1</t>
   </si>
   <si>
     <t>TC4</t>
   </si>
   <si>
-    <t>Kiểm tra text 1</t>
+    <t>Kiểm tra ảnh 1</t>
   </si>
   <si>
     <t>TC5</t>
   </si>
   <si>
-    <t>Kiểm tra ảnh 1</t>
+    <t>Ghi âm lần 1</t>
   </si>
   <si>
     <t>TC6</t>
   </si>
   <si>
-    <t>Ghi âm lần 1</t>
+    <t>Kiểm tra audio 2</t>
   </si>
   <si>
     <t>TC7</t>
   </si>
   <si>
-    <t>Kiểm tra audio 2</t>
+    <t>Kiểm tra text 2</t>
   </si>
   <si>
     <t>TC8</t>
   </si>
   <si>
-    <t>Kiểm tra text 2</t>
+    <t>Kiểm tra audio 3</t>
   </si>
   <si>
     <t>TC9</t>
   </si>
   <si>
-    <t>Kiểm tra audio 3</t>
+    <t>Kiểm tra ảnh 3</t>
   </si>
   <si>
     <t>TC10</t>
   </si>
   <si>
-    <t>Kiểm tra ảnh 3</t>
+    <t>Kiểm tra text 3</t>
   </si>
   <si>
     <t>TC11</t>
-  </si>
-  <si>
-    <t>Kiểm tra text 3</t>
-  </si>
-  <si>
-    <t>TC12</t>
   </si>
   <si>
     <t>Kiểm tra amin kết thúc game</t>
@@ -189,16 +183,13 @@
     <t>Item: Image - text</t>
   </si>
   <si>
-    <t>TS3</t>
-  </si>
-  <si>
     <t>Kiểm tra audio từ 1</t>
   </si>
   <si>
     <t>getAudiosSourceByTime</t>
   </si>
   <si>
-    <t>FxSource,10</t>
+    <t>Managers/SoundManager/Managers/SoundManager/FxSource,10</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="BE.PS04SpeakingCompetition(Clone)")].turn[0].word[?(@.type=='question')].audio[*].file_path</t>
@@ -234,7 +225,7 @@
     <t>getAudioSource</t>
   </si>
   <si>
-    <t>FxSource</t>
+    <t>Managers/SoundManager/Managers/SoundManager/FxSource</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="BE.PS04SpeakingCompetition(Clone)")].turn[0].word[?(@.type=='question_answer')].audio[*].file_path</t>
@@ -264,10 +255,10 @@
     <t>Chờ audio Say xuất hiện</t>
   </si>
   <si>
-    <t>FxSource,AudioSource,clip,Say ___female (UnityEngine.AudioClip)</t>
+    <t>Managers/SoundManager/FxSource,AudioSource,clip,Say ___female (UnityEngine.AudioClip)</t>
   </si>
   <si>
-    <t>TS4</t>
+    <t>TS3</t>
   </si>
   <si>
     <t>Kiểm tra audio từ 2</t>
@@ -279,10 +270,10 @@
     <t>$.act[?(@.game_name=="BE.PS04SpeakingCompetition(Clone)")].turn[1].word[?(@.type=='question')].audio[*].file_path</t>
   </si>
   <si>
-    <t>TS8</t>
+    <t>TS4</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra audio máy đọc </t>
+    <t>Kiểm tra audio đối thủ đọc từ 2</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="BE.PS04SpeakingCompetition(Clone)")].turn[1].word[?(@.type=='question_answer')].audio[*].file_path</t>
@@ -310,6 +301,9 @@
   </si>
   <si>
     <t>$.act[?(@.game_name=="BE.PS04SpeakingCompetition(Clone)")].turn[2].word[?(@.type=='question')].audio[*].file_path</t>
+  </si>
+  <si>
+    <t>Kiểm tra audio đối thủ đọc từ 3</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="BE.PS04SpeakingCompetition(Clone)")].turn[2].word[?(@.type=='question_answer')].audio[*].file_path</t>
@@ -367,24 +361,24 @@
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF0B7500"/>
@@ -480,26 +474,23 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -508,43 +499,43 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -559,25 +550,25 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -586,10 +577,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -967,33 +961,24 @@
       <c r="AB1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="8" t="str">
-        <f>TEXT(COUNTIF(D:D,"PASS"),"###")</f>
-        <v/>
-      </c>
-      <c r="J2" s="8" t="str">
-        <f>TEXT(COUNTIF(D:D,"FAIL"),"###")</f>
-        <v/>
-      </c>
-      <c r="K2" s="8" t="str">
-        <f>TEXT(COUNTIF(D:D,"SKIP"),"###")</f>
-        <v/>
-      </c>
-      <c r="L2" s="5"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -1012,24 +997,24 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1057,15 +1042,15 @@
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -1087,21 +1072,21 @@
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -1123,21 +1108,21 @@
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -1159,21 +1144,21 @@
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1201,15 +1186,15 @@
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1237,15 +1222,15 @@
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1267,21 +1252,21 @@
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1303,21 +1288,21 @@
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1339,21 +1324,21 @@
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1371,63 +1356,27 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D13">
+  <conditionalFormatting sqref="D1:D12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D13">
+  <conditionalFormatting sqref="D1:D12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D13">
+  <conditionalFormatting sqref="D1:D12">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C12">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F12">
       <formula1>'Group-Turn'!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -1469,819 +1418,819 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="11" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="14" t="str">
+        <f>TestCase!A2</f>
+        <v>TC1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="15" t="str">
+      <c r="D2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="14" t="str">
+        <f>TestCase!A2</f>
+        <v>TC1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="14" t="str">
         <f>TestCase!A3</f>
         <v>TC2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19" t="s">
+      <c r="E4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="21"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15" t="str">
+      <c r="H4" s="24"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" ht="45.75" customHeight="1">
+      <c r="A5" s="14" t="str">
         <f>TestCase!A3</f>
         <v>TC2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="str">
+      <c r="H5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" ht="36.0" customHeight="1">
+      <c r="A6" s="14" t="str">
         <f>TestCase!A4</f>
         <v>TC3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19" t="s">
+      <c r="B6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" ht="45.75" customHeight="1">
-      <c r="A5" s="15" t="str">
-        <f>TestCase!A4</f>
-        <v>TC3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="H6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="I6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" ht="36.0" customHeight="1">
-      <c r="A6" s="15" t="str">
+      <c r="J6" s="20"/>
+      <c r="K6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" ht="39.75" customHeight="1">
+      <c r="A7" s="14" t="str">
         <f>TestCase!A5</f>
         <v>TC4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" ht="46.5" customHeight="1">
+      <c r="A8" s="14" t="str">
+        <f>TestCase!A5</f>
+        <v>TC4</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19" t="s">
+      <c r="E8" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" ht="39.75" customHeight="1">
-      <c r="A7" s="15" t="str">
+      <c r="H8" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="37"/>
+    </row>
+    <row r="9" ht="23.25" customHeight="1">
+      <c r="A9" s="14" t="str">
         <f>TestCase!A6</f>
         <v>TC5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B9" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
+      <c r="E9" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" ht="46.5" customHeight="1">
-      <c r="A8" s="15" t="str">
+      <c r="H9" s="33"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="37"/>
+    </row>
+    <row r="10" ht="23.25" customHeight="1">
+      <c r="A10" s="14" t="str">
         <f>TestCase!A6</f>
         <v>TC5</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37" t="s">
+      <c r="E10" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="39"/>
-    </row>
-    <row r="9" ht="23.25" customHeight="1">
-      <c r="A9" s="15" t="str">
+      <c r="H10" s="33"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="14" t="str">
         <f>TestCase!A7</f>
         <v>TC6</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="35" t="s">
+      <c r="B11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37" t="s">
+      <c r="D11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="39"/>
-    </row>
-    <row r="10" ht="23.25" customHeight="1">
-      <c r="A10" s="15" t="str">
+      <c r="H11" s="17"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" ht="51.75" customHeight="1">
+      <c r="A12" s="14" t="str">
         <f>TestCase!A7</f>
         <v>TC6</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" ht="37.5" customHeight="1">
+      <c r="A13" s="14" t="str">
+        <f>TestCase!A7</f>
+        <v>TC6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" ht="39.75" customHeight="1">
+      <c r="A14" s="31" t="str">
+        <f>TestCase!A7</f>
+        <v>TC6</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37" t="s">
+      <c r="E14" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="39"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="15" t="str">
+      <c r="H14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" ht="37.5" customHeight="1">
+      <c r="A15" s="31" t="str">
         <f>TestCase!A8</f>
         <v>TC7</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
+      <c r="B15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" ht="51.75" customHeight="1">
-      <c r="A12" s="15" t="str">
+      <c r="H15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" ht="37.5" customHeight="1">
+      <c r="A16" s="31" t="str">
         <f>TestCase!A8</f>
         <v>TC7</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="41" t="s">
+      <c r="B16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="15" t="str">
+      <c r="H16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" ht="37.5" customHeight="1">
+      <c r="A17" s="31" t="str">
         <f>TestCase!A8</f>
         <v>TC7</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="41" t="s">
+      <c r="B17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" ht="39.75" customHeight="1">
-      <c r="A14" s="32" t="str">
+      <c r="H17" s="17"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" ht="37.5" customHeight="1">
+      <c r="A18" s="31" t="str">
         <f>TestCase!A8</f>
         <v>TC7</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37" t="s">
+      <c r="B18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="39"/>
-    </row>
-    <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="32" t="str">
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" ht="21.0" customHeight="1">
+      <c r="A19" s="31" t="str">
         <f>TestCase!A9</f>
         <v>TC8</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19" t="s">
+      <c r="B19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="21"/>
-    </row>
-    <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="32" t="str">
+      <c r="H19" s="17"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" ht="30.75" customHeight="1">
+      <c r="A20" s="14" t="str">
         <f>TestCase!A9</f>
         <v>TC8</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19" t="s">
+      <c r="B20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="32" t="str">
+      <c r="H20" s="17"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" ht="41.25" customHeight="1">
+      <c r="A21" s="14" t="str">
         <f>TestCase!A9</f>
         <v>TC8</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="21"/>
-    </row>
-    <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="32" t="str">
+      <c r="J21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="31" t="str">
         <f>TestCase!A9</f>
         <v>TC8</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="B22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="21"/>
-    </row>
-    <row r="19" ht="21.0" customHeight="1">
-      <c r="A19" s="32" t="str">
+      <c r="H22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" ht="45.75" customHeight="1">
+      <c r="A23" s="31" t="str">
         <f>TestCase!A10</f>
         <v>TC9</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19" t="s">
+      <c r="B23" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="21"/>
-    </row>
-    <row r="20" ht="30.75" customHeight="1">
-      <c r="A20" s="15" t="str">
-        <f>TestCase!A10</f>
-        <v>TC9</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" ht="41.25" customHeight="1">
-      <c r="A21" s="15" t="str">
-        <f>TestCase!A10</f>
-        <v>TC9</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="31" t="s">
+      <c r="H23" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="32" t="str">
-        <f>TestCase!A10</f>
-        <v>TC9</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" s="39"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="39"/>
-    </row>
-    <row r="23" ht="45.75" customHeight="1">
-      <c r="A23" s="32" t="str">
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" ht="37.5" customHeight="1">
+      <c r="A24" s="31" t="str">
         <f>TestCase!A11</f>
         <v>TC10</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="41" t="s">
+      <c r="B24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="31" t="s">
+      <c r="H24" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="32" t="str">
+      <c r="I24" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="31" t="str">
         <f>TestCase!A12</f>
         <v>TC11</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19" t="s">
+      <c r="E25" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="31" t="s">
+      <c r="H25" s="33"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="31" t="str">
+        <f>TestCase!A12</f>
+        <v>TC11</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="32" t="str">
-        <f>TestCase!A13</f>
-        <v>TC12</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37" t="s">
+      <c r="F26" s="35"/>
+      <c r="G26" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="32" t="str">
-        <f>TestCase!A13</f>
-        <v>TC12</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="34"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1:L26 M1:N1">
@@ -2364,10 +2313,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2948,12 +2897,12 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNoReturn")</f>
-        <v>waitForObjectNoReturn</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B15" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,timeout(s)")</f>
-        <v>element,timeout(s)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSpli,second, element")</f>
+        <v>strSpli,second, element</v>
       </c>
       <c r="C15" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2961,10 +2910,7 @@
       </c>
       <c r="D15" s="55"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true")</f>
-        <v>hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true</v>
-      </c>
+      <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
@@ -2988,12 +2934,12 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContain")</f>
-        <v>waitForObjectContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNoReturn")</f>
+        <v>waitForObjectNoReturn</v>
       </c>
       <c r="B16" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,timeout(s)")</f>
+        <v>element,timeout(s)</v>
       </c>
       <c r="C16" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3001,7 +2947,10 @@
       </c>
       <c r="D16" s="57"/>
       <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="F16" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true")</f>
+        <v>hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true</v>
+      </c>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
@@ -3029,8 +2978,8 @@
         <v>waitForObjectContain</v>
       </c>
       <c r="B17" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,key,content")</f>
-        <v>element,key,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C17" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3062,12 +3011,12 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectInScreen")</f>
-        <v>waitForObjectInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContain")</f>
+        <v>waitForObjectContain</v>
       </c>
       <c r="B18" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,timeout(s)]")</f>
-        <v>element[,timeout(s)]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,key,content")</f>
+        <v>element,key,content</v>
       </c>
       <c r="C18" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3098,18 +3047,12 @@
       <c r="Z18" s="54"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"simulateClick")</f>
-        <v>simulateClick</v>
-      </c>
+      <c r="A19" s="54"/>
       <c r="B19" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,property[,index]")</f>
-        <v>element,property[,index]</v>
-      </c>
-      <c r="C19" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,key,strAdd,second,content")</f>
+        <v>locator,key,strAdd,second,content</v>
+      </c>
+      <c r="C19" s="55"/>
       <c r="D19" s="57"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
@@ -3136,12 +3079,12 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"press")</f>
-        <v>press</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectInScreen")</f>
+        <v>waitForObjectInScreen</v>
       </c>
       <c r="B20" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,index]")</f>
-        <v>element[,index]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,timeout(s)]")</f>
+        <v>element[,timeout(s)]</v>
       </c>
       <c r="C20" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3173,12 +3116,12 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pressWithTag")</f>
-        <v>pressWithTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"simulateClick")</f>
+        <v>simulateClick</v>
       </c>
       <c r="B21" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tagNew,tagOld")</f>
-        <v>tagNew,tagOld</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,property[,index]")</f>
+        <v>element,property[,index]</v>
       </c>
       <c r="C21" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3210,23 +3153,20 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
-        <v>swipeToRight</v>
-      </c>
-      <c r="B22" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
-      </c>
-      <c r="C22" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"press")</f>
+        <v>press</v>
+      </c>
+      <c r="B22" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,index]")</f>
+        <v>element[,index]</v>
+      </c>
+      <c r="C22" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="54"/>
-      <c r="F22" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
-        <v>Scroll sang phải</v>
-      </c>
+      <c r="F22" s="54"/>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
@@ -3250,23 +3190,20 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
-        <v>swipeToRight</v>
-      </c>
-      <c r="B23" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x1,x2,y")</f>
-        <v>x1,x2,y</v>
-      </c>
-      <c r="C23" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pressWithTag")</f>
+        <v>pressWithTag</v>
+      </c>
+      <c r="B23" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tagNew,tagOld")</f>
+        <v>tagNew,tagOld</v>
+      </c>
+      <c r="C23" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
-        <v>Scroll sang phải</v>
-      </c>
+      <c r="F23" s="54"/>
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
@@ -3290,20 +3227,23 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValue")</f>
-        <v>getPropertyValue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
+        <v>swipeToRight</v>
       </c>
       <c r="B24" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
-        <v>element,component,property</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C24" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="F24" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
+        <v>Scroll sang phải</v>
+      </c>
       <c r="G24" s="54"/>
       <c r="H24" s="54"/>
       <c r="I24" s="54"/>
@@ -3327,20 +3267,23 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageName")</f>
-        <v>getImageName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
+        <v>swipeToRight</v>
       </c>
       <c r="B25" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,component]")</f>
-        <v>element[,component]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x1,x2,y")</f>
+        <v>x1,x2,y</v>
       </c>
       <c r="C25" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="F25" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
+        <v>Scroll sang phải</v>
+      </c>
       <c r="G25" s="54"/>
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
@@ -3364,12 +3307,12 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameVariable")</f>
-        <v>getImageNameVariable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValue")</f>
+        <v>getPropertyValue</v>
       </c>
       <c r="B26" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"generate,element[,component],key")</f>
-        <v>generate,element[,component],key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
       </c>
       <c r="C26" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3401,12 +3344,12 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageColor")</f>
-        <v>getImageColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageName")</f>
+        <v>getImageName</v>
       </c>
       <c r="B27" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,component]")</f>
+        <v>element[,component]</v>
       </c>
       <c r="C27" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3438,12 +3381,12 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValues")</f>
-        <v>getPropertyValues</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameVariable")</f>
+        <v>getImageNameVariable</v>
       </c>
       <c r="B28" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second")</f>
-        <v>element,component,property,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"generate,element[,component],key")</f>
+        <v>generate,element[,component],key</v>
       </c>
       <c r="C28" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3451,10 +3394,7 @@
       </c>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"param number là số lượng value cần check")</f>
-        <v>param number là số lượng value cần check</v>
-      </c>
+      <c r="F28" s="56"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="54"/>
@@ -3478,12 +3418,12 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getText")</f>
-        <v>getText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageColor")</f>
+        <v>getImageColor</v>
       </c>
       <c r="B29" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
-        <v>element,component</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C29" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3515,12 +3455,12 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTexts")</f>
-        <v>getTexts</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValues")</f>
+        <v>getPropertyValues</v>
       </c>
       <c r="B30" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,expect")</f>
-        <v>element,component,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second")</f>
+        <v>element,component,property,second</v>
       </c>
       <c r="C30" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3529,10 +3469,8 @@
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
       <c r="F30" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
-TH getTexts contain expected điền giá trị expect+""_boolean_""")</f>
-        <v>expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
-TH getTexts contain expected điền giá trị expect+"_boolean_"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"param number là số lượng value cần check")</f>
+        <v>param number là số lượng value cần check</v>
       </c>
       <c r="G30" s="54"/>
       <c r="H30" s="54"/>
@@ -3557,12 +3495,12 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByTime")</f>
-        <v>getTextsByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getText")</f>
+        <v>getText</v>
       </c>
       <c r="B31" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,second,expect")</f>
-        <v>element,component,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C31" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3570,10 +3508,7 @@
       </c>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
-      <c r="F31" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or time = second")</f>
-        <v>Stop khi actual contain expect or time = second</v>
-      </c>
+      <c r="F31" s="54"/>
       <c r="G31" s="54"/>
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
@@ -3597,12 +3532,12 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByLocator")</f>
-        <v>getTextsByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTexts")</f>
+        <v>getTexts</v>
       </c>
       <c r="B32" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,component1,element2,expect")</f>
-        <v>element1,component1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,expect")</f>
+        <v>element,component,expect</v>
       </c>
       <c r="C32" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3611,8 +3546,10 @@
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
       <c r="F32" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or element 2 display")</f>
-        <v>Stop khi actual contain expect or element 2 display</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
+TH getTexts contain expected điền giá trị expect+""_boolean_""")</f>
+        <v>expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
+TH getTexts contain expected điền giá trị expect+"_boolean_"</v>
       </c>
       <c r="G32" s="54"/>
       <c r="H32" s="54"/>
@@ -3637,12 +3574,12 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextNoColor")</f>
-        <v>getTextNoColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByTime")</f>
+        <v>getTextsByTime</v>
       </c>
       <c r="B33" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,...string split")</f>
-        <v>element,component,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,second,expect")</f>
+        <v>element,component,second,expect</v>
       </c>
       <c r="C33" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3650,7 +3587,10 @@
       </c>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="F33" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or time = second")</f>
+        <v>Stop khi actual contain expect or time = second</v>
+      </c>
       <c r="G33" s="54"/>
       <c r="H33" s="54"/>
       <c r="I33" s="54"/>
@@ -3674,12 +3614,12 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
-        <v>getTextLocatorChild</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByLocator")</f>
+        <v>getTextsByLocator</v>
       </c>
       <c r="B34" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
-        <v>element,component,key,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,component1,element2,expect")</f>
+        <v>element1,component1,element2,expect</v>
       </c>
       <c r="C34" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3687,11 +3627,9 @@
       </c>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
-      <c r="F34" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
-        <v>get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      <c r="F34" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or element 2 display")</f>
+        <v>Stop khi actual contain expect or element 2 display</v>
       </c>
       <c r="G34" s="54"/>
       <c r="H34" s="54"/>
@@ -3716,16 +3654,16 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
-        <v>waitForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextNoColor")</f>
+        <v>getTextNoColor</v>
       </c>
       <c r="B35" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
-        <v>element, second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,...string split")</f>
+        <v>element,component,...string split</v>
       </c>
       <c r="C35" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
@@ -3753,20 +3691,25 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
-        <v>swipeToDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
+        <v>getTextLocatorChild</v>
       </c>
       <c r="B36" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
+        <v>element,component,key,...string split</v>
       </c>
       <c r="C36" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="F36" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
+        <v>get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      </c>
       <c r="G36" s="54"/>
       <c r="H36" s="54"/>
       <c r="I36" s="54"/>
@@ -3790,16 +3733,16 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
-        <v>getElements</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B37" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
+        <v>element, second</v>
       </c>
       <c r="C37" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
@@ -3827,12 +3770,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
-        <v>sleep</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
+        <v>swipeToDown</v>
       </c>
       <c r="B38" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
-        <v>second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C38" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3864,8 +3807,8 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
-        <v>getSpineState</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
+        <v>getElements</v>
       </c>
       <c r="B39" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -3901,22 +3844,19 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
-        <v>getSpineStates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
+        <v>sleep</v>
       </c>
       <c r="B40" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
-        <v>element,second,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
+        <v>second</v>
       </c>
       <c r="C40" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D40" s="54"/>
-      <c r="E40" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
-        <v>state1,state2</v>
-      </c>
+      <c r="E40" s="54"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
       <c r="H40" s="54"/>
@@ -3941,8 +3881,8 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
-        <v>getAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
+        <v>getSpineState</v>
       </c>
       <c r="B41" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -3954,10 +3894,7 @@
       </c>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
-        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
-      </c>
+      <c r="F41" s="54"/>
       <c r="G41" s="54"/>
       <c r="H41" s="54"/>
       <c r="I41" s="54"/>
@@ -3981,23 +3918,23 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
-        <v>getPointScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
+        <v>getSpineStates</v>
       </c>
       <c r="B42" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
-        <v>element,"x/y"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
+        <v>element,second,count</v>
       </c>
       <c r="C42" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
-        <v>get coordinates of element of X or Y</v>
-      </c>
+      <c r="E42" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
+        <v>state1,state2</v>
+      </c>
+      <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="H42" s="54"/>
       <c r="I42" s="54"/>
@@ -4021,12 +3958,12 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
-        <v>getSizeScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
+        <v>getAudioSource</v>
       </c>
       <c r="B43" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
-        <v>"w/h"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C43" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4035,8 +3972,8 @@
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
       <c r="F43" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
-        <v>get size of device of  with (w) or height (h)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
+        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
       </c>
       <c r="G43" s="54"/>
       <c r="H43" s="54"/>
@@ -4061,12 +3998,12 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
-        <v>isBoolean</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
+        <v>getPointScreen</v>
       </c>
       <c r="B44" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
-        <v>value1, vaule 2, operator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
+        <v>element,"x/y"</v>
       </c>
       <c r="C44" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4075,8 +4012,8 @@
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
       <c r="F44" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
-        <v>Hiện tại:[&lt;],[&gt;]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
+        <v>get coordinates of element of X or Y</v>
       </c>
       <c r="G44" s="54"/>
       <c r="H44" s="54"/>
@@ -4101,12 +4038,12 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
-        <v>isPointInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
+        <v>getSizeScreen</v>
       </c>
       <c r="B45" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
+        <v>"w/h"</v>
       </c>
       <c r="C45" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4114,7 +4051,10 @@
       </c>
       <c r="D45" s="54"/>
       <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
+      <c r="F45" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
+        <v>get size of device of  with (w) or height (h)</v>
+      </c>
       <c r="G45" s="54"/>
       <c r="H45" s="54"/>
       <c r="I45" s="54"/>
@@ -4138,12 +4078,12 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
-        <v>isMoveLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
+        <v>isBoolean</v>
       </c>
       <c r="B46" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
-        <v>element[,second]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
+        <v>value1, vaule 2, operator</v>
       </c>
       <c r="C46" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4151,7 +4091,10 @@
       </c>
       <c r="D46" s="54"/>
       <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
+      <c r="F46" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
+        <v>Hiện tại:[&lt;],[&gt;]</v>
+      </c>
       <c r="G46" s="54"/>
       <c r="H46" s="54"/>
       <c r="I46" s="54"/>
@@ -4175,12 +4118,12 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
-        <v>isMoveDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
+        <v>isPointInScreen</v>
       </c>
       <c r="B47" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C47" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4212,12 +4155,12 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
-        <v>isLocationCompare</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
+        <v>isMoveLeft</v>
       </c>
       <c r="B48" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
-        <v>element1,element2,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
+        <v>element[,second]</v>
       </c>
       <c r="C48" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4225,10 +4168,7 @@
       </c>
       <c r="D48" s="54"/>
       <c r="E48" s="54"/>
-      <c r="F48" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
-        <v>coordinate = x/y</v>
-      </c>
+      <c r="F48" s="54"/>
       <c r="G48" s="54"/>
       <c r="H48" s="54"/>
       <c r="I48" s="54"/>
@@ -4252,16 +4192,16 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
-        <v>move</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
+        <v>isMoveDown</v>
       </c>
       <c r="B49" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C49" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
@@ -4289,12 +4229,12 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
-        <v>elementNotDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
+        <v>isLocationCompare</v>
       </c>
       <c r="B50" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
+        <v>element1,element2,coordinate</v>
       </c>
       <c r="C50" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4302,7 +4242,10 @@
       </c>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="F50" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
+        <v>coordinate = x/y</v>
+      </c>
       <c r="G50" s="54"/>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
@@ -4326,16 +4269,16 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
+        <v>move</v>
       </c>
       <c r="B51" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C51" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
@@ -4363,12 +4306,12 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
+        <v>elementNotDisplay</v>
       </c>
       <c r="B52" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C52" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4400,23 +4343,20 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
-        <v>moveByCoordinates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B53" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
-        <v>element,number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C53" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D53" s="54"/>
       <c r="E53" s="54"/>
-      <c r="F53" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
-        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
-      </c>
+      <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
@@ -4440,23 +4380,18 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
-        <v>waitForObjectNotInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B54" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
-        <v>element,second,size,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C54" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D54" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
-coordinate = x/y")</f>
-        <v>size: w/h
-coordinate = x/y</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D54" s="54"/>
       <c r="E54" s="54"/>
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
@@ -4482,12 +4417,12 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
-        <v>waitForObjectContainNotAble</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
+        <v>moveByCoordinates</v>
       </c>
       <c r="B55" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
+        <v>element,number</v>
       </c>
       <c r="C55" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4495,7 +4430,10 @@
       </c>
       <c r="D55" s="54"/>
       <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
+      <c r="F55" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
+        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
+      </c>
       <c r="G55" s="54"/>
       <c r="H55" s="54"/>
       <c r="I55" s="54"/>
@@ -4519,20 +4457,22 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
-        <v>isRotation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
+        <v>waitForObjectNotInScreen</v>
       </c>
       <c r="B56" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
-        <v>element,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
+        <v>element,second,size,coordinate</v>
       </c>
       <c r="C56" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D56" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
-        <v>coordinate = x/y/z/w</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
+coordinate = x/y")</f>
+        <v>size: w/h
+coordinate = x/y</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="54"/>
@@ -4559,23 +4499,20 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
+        <v>waitForObjectContainNotAble</v>
       </c>
       <c r="B57" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
-        <v>element,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C57" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D57" s="54"/>
       <c r="E57" s="54"/>
-      <c r="F57" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
-        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
-      </c>
+      <c r="F57" s="54"/>
       <c r="G57" s="54"/>
       <c r="H57" s="54"/>
       <c r="I57" s="54"/>
@@ -4599,20 +4536,20 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
+        <v>isRotation</v>
       </c>
       <c r="B58" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
-        <v>element,count,expects</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
+        <v>element,coordinate</v>
       </c>
       <c r="C58" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D58" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
-        <v>expects = [value1;value2;..]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
+        <v>coordinate = x/y/z/w</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="54"/>
@@ -4639,23 +4576,23 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
-        <v>getImageNameAndColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B59" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
+        <v>element,count</v>
       </c>
       <c r="C59" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D59" s="54"/>
-      <c r="E59" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
-        <v>image + ","+ color</v>
-      </c>
-      <c r="F59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
+        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
+      </c>
       <c r="G59" s="54"/>
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
@@ -4679,18 +4616,21 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
-        <v>getTextContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B60" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
-        <v>element,component,containt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
+        <v>element,count,expects</v>
       </c>
       <c r="C60" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D60" s="54"/>
+      <c r="D60" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
+        <v>expects = [value1;value2;..]</v>
+      </c>
       <c r="E60" s="54"/>
       <c r="F60" s="54"/>
       <c r="G60" s="54"/>
@@ -4716,19 +4656,22 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
+        <v>getImageNameAndColor</v>
       </c>
       <c r="B61" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C61" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
+      <c r="E61" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
+        <v>image + ","+ color</v>
+      </c>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
       <c r="H61" s="54"/>
@@ -4753,12 +4696,12 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
+        <v>getTextContain</v>
       </c>
       <c r="B62" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
-        <v>element,component,property,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
+        <v>element,component,containt</v>
       </c>
       <c r="C62" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4790,21 +4733,18 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
-        <v>swipeRightToLeftEx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B63" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C63" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D63" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
-        <v>bài bao nhiêu</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D63" s="54"/>
       <c r="E63" s="54"/>
       <c r="F63" s="54"/>
       <c r="G63" s="54"/>
@@ -4830,12 +4770,12 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
-        <v>getVideoName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B64" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
+        <v>element,component,property,second,expect</v>
       </c>
       <c r="C64" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4843,14 +4783,7 @@
       </c>
       <c r="D64" s="54"/>
       <c r="E64" s="54"/>
-      <c r="F64" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1</v>
-      </c>
+      <c r="F64" s="54"/>
       <c r="G64" s="54"/>
       <c r="H64" s="54"/>
       <c r="I64" s="54"/>
@@ -4874,29 +4807,23 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
+        <v>swipeRightToLeftEx</v>
       </c>
       <c r="B65" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C65" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D65" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D65" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
+        <v>bài bao nhiêu</v>
+      </c>
       <c r="E65" s="54"/>
-      <c r="F65" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4</v>
-      </c>
+      <c r="F65" s="54"/>
       <c r="G65" s="54"/>
       <c r="H65" s="54"/>
       <c r="I65" s="54"/>
@@ -4920,17 +4847,27 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
+        <v>getVideoName</v>
       </c>
       <c r="B66" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
-        <v>element,component,key,expected</v>
-      </c>
-      <c r="C66" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
+      </c>
+      <c r="C66" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D66" s="54"/>
       <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
+      <c r="F66" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1</v>
+      </c>
       <c r="G66" s="54"/>
       <c r="H66" s="54"/>
       <c r="I66" s="54"/>
@@ -4954,20 +4891,29 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B67" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
       </c>
       <c r="C67" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D67" s="54"/>
       <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
+      <c r="F67" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4</v>
+      </c>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
       <c r="I67" s="54"/>
@@ -4991,26 +4937,17 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B68" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
-      </c>
-      <c r="C68" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D68" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="54"/>
-      <c r="F68" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
-      </c>
+      <c r="F68" s="54"/>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
       <c r="I68" s="54"/>
@@ -5034,12 +4971,12 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B69" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C69" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5047,10 +4984,7 @@
       </c>
       <c r="D69" s="54"/>
       <c r="E69" s="54"/>
-      <c r="F69" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
       <c r="I69" s="54"/>
@@ -5074,22 +5008,25 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B70" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C70" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D70" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D70" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E70" s="54"/>
       <c r="F70" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -5114,8 +5051,8 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B71" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -5128,8 +5065,8 @@
       <c r="D71" s="54"/>
       <c r="E71" s="54"/>
       <c r="F71" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G71" s="54"/>
       <c r="H71" s="54"/>
@@ -5154,16 +5091,16 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B72" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C72" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D72" s="54"/>
       <c r="E72" s="54"/>
@@ -5191,12 +5128,12 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B73" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C73" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5228,12 +5165,12 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B74" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C74" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5265,12 +5202,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B75" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C75" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5278,7 +5215,10 @@
       </c>
       <c r="D75" s="54"/>
       <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
+      <c r="F75" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
@@ -5302,12 +5242,12 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B76" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C76" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5315,7 +5255,10 @@
       </c>
       <c r="D76" s="54"/>
       <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
+      <c r="F76" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G76" s="54"/>
       <c r="H76" s="54"/>
       <c r="I76" s="54"/>
@@ -5339,16 +5282,16 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B77" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C77" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D77" s="54"/>
       <c r="E77" s="54"/>
@@ -5376,12 +5319,12 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B78" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C78" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5413,12 +5356,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B79" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C79" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5450,12 +5393,12 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B80" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C80" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5487,12 +5430,12 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B81" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C81" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5500,10 +5443,7 @@
       </c>
       <c r="D81" s="54"/>
       <c r="E81" s="54"/>
-      <c r="F81" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F81" s="54"/>
       <c r="G81" s="54"/>
       <c r="H81" s="54"/>
       <c r="I81" s="54"/>
@@ -5527,12 +5467,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B82" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C82" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5564,12 +5504,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B83" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C83" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5601,12 +5541,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B84" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C84" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5614,10 +5554,7 @@
       </c>
       <c r="D84" s="54"/>
       <c r="E84" s="54"/>
-      <c r="F84" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
-      </c>
+      <c r="F84" s="54"/>
       <c r="G84" s="54"/>
       <c r="H84" s="54"/>
       <c r="I84" s="54"/>
@@ -5641,12 +5578,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B85" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C85" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5654,10 +5591,7 @@
       </c>
       <c r="D85" s="54"/>
       <c r="E85" s="54"/>
-      <c r="F85" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
-      </c>
+      <c r="F85" s="54"/>
       <c r="G85" s="54"/>
       <c r="H85" s="54"/>
       <c r="I85" s="54"/>
@@ -5681,12 +5615,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B86" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C86" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5694,7 +5628,10 @@
       </c>
       <c r="D86" s="54"/>
       <c r="E86" s="54"/>
-      <c r="F86" s="54"/>
+      <c r="F86" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
+      </c>
       <c r="G86" s="54"/>
       <c r="H86" s="54"/>
       <c r="I86" s="54"/>
@@ -5718,12 +5655,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B87" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C87" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5755,20 +5692,20 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B88" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
+      </c>
+      <c r="B88" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
+      </c>
       <c r="C88" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D88" s="54"/>
       <c r="E88" s="54"/>
-      <c r="F88" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F88" s="54"/>
       <c r="G88" s="54"/>
       <c r="H88" s="54"/>
       <c r="I88" s="54"/>
@@ -5792,20 +5729,20 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
-      </c>
-      <c r="B89" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
+      </c>
+      <c r="B89" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
+      </c>
       <c r="C89" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D89" s="54"/>
       <c r="E89" s="54"/>
-      <c r="F89" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
-      </c>
+      <c r="F89" s="54"/>
       <c r="G89" s="54"/>
       <c r="H89" s="54"/>
       <c r="I89" s="54"/>
@@ -5829,20 +5766,23 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B90" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C90" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D90" s="54"/>
       <c r="E90" s="54"/>
-      <c r="F90" s="54"/>
+      <c r="F90" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
+      </c>
       <c r="G90" s="54"/>
       <c r="H90" s="54"/>
       <c r="I90" s="54"/>
@@ -5866,20 +5806,23 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B91" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C91" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D91" s="54"/>
       <c r="E91" s="54"/>
-      <c r="F91" s="54"/>
+      <c r="F91" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
+      </c>
       <c r="G91" s="54"/>
       <c r="H91" s="54"/>
       <c r="I91" s="54"/>
@@ -5903,20 +5846,23 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B92" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C92" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D92" s="54"/>
       <c r="E92" s="54"/>
-      <c r="F92" s="54"/>
+      <c r="F92" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G92" s="54"/>
       <c r="H92" s="54"/>
       <c r="I92" s="54"/>
@@ -5939,9 +5885,18 @@
       <c r="Z92" s="54"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="54"/>
-      <c r="B93" s="54"/>
-      <c r="C93" s="54"/>
+      <c r="A93" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
+      </c>
+      <c r="B93" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
+      </c>
+      <c r="C93" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D93" s="54"/>
       <c r="E93" s="54"/>
       <c r="F93" s="54"/>
@@ -5967,9 +5922,18 @@
       <c r="Z93" s="54"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="54"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="54"/>
+      <c r="A94" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B94" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
+      <c r="C94" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D94" s="54"/>
       <c r="E94" s="54"/>
       <c r="F94" s="54"/>
@@ -5995,12 +5959,21 @@
       <c r="Z94" s="54"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="54"/>
+      <c r="A95" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
+      </c>
       <c r="B95" s="54"/>
-      <c r="C95" s="54"/>
+      <c r="C95" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D95" s="54"/>
       <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
+      <c r="F95" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
+      </c>
       <c r="G95" s="54"/>
       <c r="H95" s="54"/>
       <c r="I95" s="54"/>
@@ -6023,12 +5996,21 @@
       <c r="Z95" s="54"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="54"/>
+      <c r="A96" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
       <c r="B96" s="54"/>
-      <c r="C96" s="54"/>
+      <c r="C96" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D96" s="54"/>
       <c r="E96" s="54"/>
-      <c r="F96" s="54"/>
+      <c r="F96" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G96" s="54"/>
       <c r="H96" s="54"/>
       <c r="I96" s="54"/>
@@ -6051,9 +6033,18 @@
       <c r="Z96" s="54"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="54"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="54"/>
+      <c r="A97" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
+      </c>
+      <c r="B97" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C97" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D97" s="54"/>
       <c r="E97" s="54"/>
       <c r="F97" s="54"/>
@@ -6079,9 +6070,18 @@
       <c r="Z97" s="54"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="54"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
+      <c r="A98" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
+      </c>
+      <c r="B98" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
+      </c>
+      <c r="C98" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D98" s="54"/>
       <c r="E98" s="54"/>
       <c r="F98" s="54"/>
@@ -6107,9 +6107,18 @@
       <c r="Z98" s="54"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="54"/>
-      <c r="B99" s="54"/>
-      <c r="C99" s="54"/>
+      <c r="A99" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
+      </c>
+      <c r="B99" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
+      </c>
+      <c r="C99" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D99" s="54"/>
       <c r="E99" s="54"/>
       <c r="F99" s="54"/>
@@ -6135,12 +6144,24 @@
       <c r="Z99" s="54"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="54"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="54"/>
+      <c r="A100" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
+      </c>
+      <c r="B100" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
+        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+      </c>
+      <c r="C100" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D100" s="54"/>
       <c r="E100" s="54"/>
-      <c r="F100" s="54"/>
+      <c r="F100" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G100" s="54"/>
       <c r="H100" s="54"/>
       <c r="I100" s="54"/>
@@ -6163,9 +6184,18 @@
       <c r="Z100" s="54"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="54"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="54"/>
+      <c r="A101" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
+      </c>
+      <c r="B101" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
+      </c>
+      <c r="C101" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D101" s="54"/>
       <c r="E101" s="54"/>
       <c r="F101" s="54"/>
@@ -6191,9 +6221,18 @@
       <c r="Z101" s="54"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="54"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="54"/>
+      <c r="A102" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
+      </c>
+      <c r="B102" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
+      </c>
+      <c r="C102" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D102" s="54"/>
       <c r="E102" s="54"/>
       <c r="F102" s="54"/>
@@ -6219,12 +6258,24 @@
       <c r="Z102" s="54"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="54"/>
-      <c r="B103" s="54"/>
-      <c r="C103" s="54"/>
+      <c r="A103" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B103" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
+        <v>locator,component,property,key,expect</v>
+      </c>
+      <c r="C103" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D103" s="54"/>
       <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
+      <c r="F103" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G103" s="54"/>
       <c r="H103" s="54"/>
       <c r="I103" s="54"/>

--- a/config/testcases/Report_BE.PS04SpeakingCompetition(Clone).xlsx
+++ b/config/testcases/Report_BE.PS04SpeakingCompetition(Clone).xlsx
@@ -189,7 +189,7 @@
     <t>getAudiosSourceByTime</t>
   </si>
   <si>
-    <t>Managers/SoundManager/Managers/SoundManager/FxSource,10</t>
+    <t>Managers/SoundManager/FxSource,10</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="BE.PS04SpeakingCompetition(Clone)")].turn[0].word[?(@.type=='question')].audio[*].file_path</t>
@@ -225,7 +225,7 @@
     <t>getAudioSource</t>
   </si>
   <si>
-    <t>Managers/SoundManager/Managers/SoundManager/FxSource</t>
+    <t>Managers/SoundManager/FxSource</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="BE.PS04SpeakingCompetition(Clone)")].turn[0].word[?(@.type=='question_answer')].audio[*].file_path</t>

--- a/config/testcases/Report_BE.PS04SpeakingCompetition(Clone).xlsx
+++ b/config/testcases/Report_BE.PS04SpeakingCompetition(Clone).xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="VUqf25L50WZpmxeAKWJWz4JgySKEj8oJW5lY2W9y0Jk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="Z1nRFpnNjBBaaSnv6IZGsre9eef2nAI6PeBG1QrqnGk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
   <si>
     <t>TCID</t>
   </si>
@@ -252,12 +252,6 @@
     <t>ItemPlay- Bot//Score,Text,text,0</t>
   </si>
   <si>
-    <t>Chờ audio Say xuất hiện</t>
-  </si>
-  <si>
-    <t>Managers/SoundManager/FxSource,AudioSource,clip,Say ___female (UnityEngine.AudioClip)</t>
-  </si>
-  <si>
     <t>TS3</t>
   </si>
   <si>
@@ -265,6 +259,9 @@
   </si>
   <si>
     <t>waitForObjectContainNotAble</t>
+  </si>
+  <si>
+    <t>Managers/SoundManager/FxSource,AudioSource,clip,Say ___female (UnityEngine.AudioClip)</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="BE.PS04SpeakingCompetition(Clone)")].turn[1].word[?(@.type=='question')].audio[*].file_path</t>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chờ text 3 hiển thị </t>
+  </si>
+  <si>
+    <t>Chờ audio Say xuất hiện</t>
   </si>
   <si>
     <t>Kiểm tra audio từ 3</t>
@@ -1462,9 +1462,8 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="14" t="str">
-        <f>TestCase!A2</f>
-        <v>TC1</v>
+      <c r="A2" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>44</v>
@@ -1491,9 +1490,8 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="str">
-        <f>TestCase!A2</f>
-        <v>TC1</v>
+      <c r="A3" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>48</v>
@@ -1520,9 +1518,8 @@
       <c r="N3" s="20"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14" t="str">
-        <f>TestCase!A3</f>
-        <v>TC2</v>
+      <c r="A4" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>44</v>
@@ -1549,9 +1546,8 @@
       <c r="N4" s="20"/>
     </row>
     <row r="5" ht="45.75" customHeight="1">
-      <c r="A5" s="14" t="str">
-        <f>TestCase!A3</f>
-        <v>TC2</v>
+      <c r="A5" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>48</v>
@@ -1582,9 +1578,8 @@
       <c r="N5" s="17"/>
     </row>
     <row r="6" ht="36.0" customHeight="1">
-      <c r="A6" s="14" t="str">
-        <f>TestCase!A4</f>
-        <v>TC3</v>
+      <c r="A6" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>44</v>
@@ -1613,9 +1608,8 @@
       <c r="N6" s="20"/>
     </row>
     <row r="7" ht="39.75" customHeight="1">
-      <c r="A7" s="14" t="str">
-        <f>TestCase!A5</f>
-        <v>TC4</v>
+      <c r="A7" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>44</v>
@@ -1644,9 +1638,8 @@
       <c r="N7" s="20"/>
     </row>
     <row r="8" ht="46.5" customHeight="1">
-      <c r="A8" s="14" t="str">
-        <f>TestCase!A5</f>
-        <v>TC4</v>
+      <c r="A8" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>48</v>
@@ -1679,9 +1672,8 @@
       <c r="N8" s="37"/>
     </row>
     <row r="9" ht="23.25" customHeight="1">
-      <c r="A9" s="14" t="str">
-        <f>TestCase!A6</f>
-        <v>TC5</v>
+      <c r="A9" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>44</v>
@@ -1708,9 +1700,8 @@
       <c r="N9" s="37"/>
     </row>
     <row r="10" ht="23.25" customHeight="1">
-      <c r="A10" s="14" t="str">
-        <f>TestCase!A6</f>
-        <v>TC5</v>
+      <c r="A10" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>48</v>
@@ -1737,9 +1728,8 @@
       <c r="N10" s="37"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="14" t="str">
-        <f>TestCase!A7</f>
-        <v>TC6</v>
+      <c r="A11" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>44</v>
@@ -1765,117 +1755,115 @@
       <c r="M11" s="22"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" ht="51.75" customHeight="1">
-      <c r="A12" s="14" t="str">
-        <f>TestCase!A7</f>
-        <v>TC6</v>
+    <row r="12" ht="37.5" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>75</v>
+      <c r="C12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="30"/>
+      <c r="H12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>81</v>
+      </c>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="14" t="str">
-        <f>TestCase!A7</f>
-        <v>TC6</v>
+    <row r="13" ht="39.75" customHeight="1">
+      <c r="A13" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>82</v>
-      </c>
+      <c r="H13" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="37"/>
       <c r="K13" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" ht="39.75" customHeight="1">
-      <c r="A14" s="31" t="str">
-        <f>TestCase!A7</f>
-        <v>TC6</v>
+        <v>84</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" ht="37.5" customHeight="1">
+      <c r="A14" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="37"/>
+      <c r="H14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="20"/>
       <c r="K14" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="37"/>
+        <v>87</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="20"/>
     </row>
     <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="31" t="str">
-        <f>TestCase!A8</f>
-        <v>TC7</v>
+      <c r="A15" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="19"/>
@@ -1883,67 +1871,63 @@
       <c r="G15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>59</v>
+      <c r="H15" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="22"/>
       <c r="N15" s="20"/>
     </row>
     <row r="16" ht="37.5" customHeight="1">
-      <c r="A16" s="31" t="str">
-        <f>TestCase!A8</f>
-        <v>TC7</v>
+      <c r="A16" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>63</v>
-      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="30" t="s">
-        <v>90</v>
-      </c>
+      <c r="K16" s="30"/>
       <c r="L16" s="20"/>
       <c r="M16" s="22"/>
       <c r="N16" s="20"/>
     </row>
     <row r="17" ht="37.5" customHeight="1">
-      <c r="A17" s="31" t="str">
-        <f>TestCase!A8</f>
-        <v>TC7</v>
+      <c r="A17" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="36" t="s">
@@ -1957,42 +1941,40 @@
       <c r="M17" s="22"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" ht="37.5" customHeight="1">
-      <c r="A18" s="31" t="str">
-        <f>TestCase!A8</f>
-        <v>TC7</v>
+    <row r="18" ht="21.0" customHeight="1">
+      <c r="A18" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="17"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="30"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="20"/>
       <c r="M18" s="22"/>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" ht="21.0" customHeight="1">
-      <c r="A19" s="31" t="str">
-        <f>TestCase!A9</f>
-        <v>TC8</v>
+    <row r="19" ht="30.75" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>91</v>
@@ -2001,192 +1983,186 @@
         <v>75</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F19" s="17"/>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="40" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" ht="30.75" customHeight="1">
-      <c r="A20" s="14" t="str">
-        <f>TestCase!A9</f>
-        <v>TC8</v>
+      <c r="J19" s="17"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" ht="41.25" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>78</v>
-      </c>
+      <c r="C20" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="30"/>
+      <c r="H20" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>93</v>
+      </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" ht="41.25" customHeight="1">
-      <c r="A21" s="14" t="str">
-        <f>TestCase!A9</f>
-        <v>TC8</v>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="H21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="37"/>
       <c r="K21" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="31" t="str">
-        <f>TestCase!A9</f>
-        <v>TC8</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" ht="45.75" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="37"/>
+      <c r="H22" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="17"/>
       <c r="K22" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="37"/>
-    </row>
-    <row r="23" ht="45.75" customHeight="1">
-      <c r="A23" s="31" t="str">
-        <f>TestCase!A10</f>
-        <v>TC9</v>
-      </c>
-      <c r="B23" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" ht="37.5" customHeight="1">
+      <c r="A23" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="43"/>
+      <c r="C23" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>63</v>
+      <c r="H23" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" ht="37.5" customHeight="1">
-      <c r="A24" s="31" t="str">
-        <f>TestCase!A11</f>
-        <v>TC10</v>
-      </c>
-      <c r="B24" s="14" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18" t="s">
+      <c r="C24" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="31" t="str">
-        <f>TestCase!A12</f>
-        <v>TC11</v>
+      <c r="A25" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>101</v>
@@ -2203,84 +2179,61 @@
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="31" t="str">
-        <f>TestCase!A12</f>
-        <v>TC11</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L26 M1:N1">
+  <conditionalFormatting sqref="L1:L25 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L26 M1:N1">
+  <conditionalFormatting sqref="L1:L25 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L26 M1:N1">
+  <conditionalFormatting sqref="L1:L25 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7 H16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7">
       <formula1>Keywords!$A$2:$A169</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H22">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14">
       <formula1>Keywords!$A$2:$A179</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H23:H25">
+      <formula1>Keywords!$A$2:$A169</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A25">
+      <formula1>TestCase!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H11">
+      <formula1>Keywords!$A$2:$A170</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H6 H12 H16:H17 H20 D2:D25">
+      <formula1>Keywords!$A$2:$A25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H18">
       <formula1>Keywords!$A$2:$A174</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H4 H15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13 H19">
+      <formula1>Keywords!$A$2:$A170</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G26">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G25">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H22">
       <formula1>Keywords!$A$2:$A173</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H24:H26">
-      <formula1>Keywords!$A$2:$A169</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15">
+      <formula1>Keywords!$A$2:$A178</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A26">
-      <formula1>TestCase!$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H11:H12">
-      <formula1>Keywords!$A$2:$A170</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H6 H13 H17:H18 H21 D2:D26">
-      <formula1>Keywords!$A$2:$A26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14 H20">
-      <formula1>Keywords!$A$2:$A170</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21">
+      <formula1>Keywords!$A$2:$A179</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H10">
       <formula1>Keywords!$A$2:$A162</formula1>
@@ -3691,24 +3644,22 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
-        <v>getTextLocatorChild</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabet")</f>
+        <v>getTextAlphabet</v>
       </c>
       <c r="B36" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
-        <v>element,component,key,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C36" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
-      <c r="F36" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
-        <v>get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      <c r="F36" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return string only alphabet and space")</f>
+        <v>return string only alphabet and space</v>
       </c>
       <c r="G36" s="54"/>
       <c r="H36" s="54"/>
@@ -3733,20 +3684,25 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
-        <v>waitForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
+        <v>getTextLocatorChild</v>
       </c>
       <c r="B37" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
-        <v>element, second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
+        <v>element,component,key,...string split</v>
       </c>
       <c r="C37" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="F37" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
+        <v>get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      </c>
       <c r="G37" s="54"/>
       <c r="H37" s="54"/>
       <c r="I37" s="54"/>
@@ -3770,12 +3726,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
-        <v>swipeToDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B38" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
+        <v>element, second</v>
       </c>
       <c r="C38" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3807,16 +3763,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
-        <v>getElements</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
+        <v>swipeToDown</v>
       </c>
       <c r="B39" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C39" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
@@ -3844,16 +3800,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
-        <v>sleep</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
+        <v>getElements</v>
       </c>
       <c r="B40" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
-        <v>second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C40" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D40" s="54"/>
       <c r="E40" s="54"/>
@@ -3881,16 +3837,16 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
-        <v>getSpineState</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
+        <v>sleep</v>
       </c>
       <c r="B41" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
+        <v>second</v>
       </c>
       <c r="C41" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
@@ -3918,22 +3874,19 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
-        <v>getSpineStates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
+        <v>getSpineState</v>
       </c>
       <c r="B42" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
-        <v>element,second,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C42" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D42" s="54"/>
-      <c r="E42" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
-        <v>state1,state2</v>
-      </c>
+      <c r="E42" s="54"/>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
       <c r="H42" s="54"/>
@@ -3958,23 +3911,23 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
-        <v>getAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
+        <v>getSpineStates</v>
       </c>
       <c r="B43" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
+        <v>element,second,count</v>
       </c>
       <c r="C43" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
-        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
-      </c>
+      <c r="E43" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
+        <v>state1,state2</v>
+      </c>
+      <c r="F43" s="54"/>
       <c r="G43" s="54"/>
       <c r="H43" s="54"/>
       <c r="I43" s="54"/>
@@ -3998,12 +3951,12 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
-        <v>getPointScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
+        <v>getAudioSource</v>
       </c>
       <c r="B44" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
-        <v>element,"x/y"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C44" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4012,8 +3965,8 @@
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
       <c r="F44" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
-        <v>get coordinates of element of X or Y</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
+        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
       </c>
       <c r="G44" s="54"/>
       <c r="H44" s="54"/>
@@ -4038,12 +3991,12 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
-        <v>getSizeScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
+        <v>getPointScreen</v>
       </c>
       <c r="B45" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
-        <v>"w/h"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
+        <v>element,"x/y"</v>
       </c>
       <c r="C45" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4052,8 +4005,8 @@
       <c r="D45" s="54"/>
       <c r="E45" s="54"/>
       <c r="F45" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
-        <v>get size of device of  with (w) or height (h)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
+        <v>get coordinates of element of X or Y</v>
       </c>
       <c r="G45" s="54"/>
       <c r="H45" s="54"/>
@@ -4078,12 +4031,12 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
-        <v>isBoolean</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
+        <v>getSizeScreen</v>
       </c>
       <c r="B46" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
-        <v>value1, vaule 2, operator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
+        <v>"w/h"</v>
       </c>
       <c r="C46" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4092,8 +4045,8 @@
       <c r="D46" s="54"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
-        <v>Hiện tại:[&lt;],[&gt;]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
+        <v>get size of device of  with (w) or height (h)</v>
       </c>
       <c r="G46" s="54"/>
       <c r="H46" s="54"/>
@@ -4118,12 +4071,12 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
-        <v>isPointInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
+        <v>isBoolean</v>
       </c>
       <c r="B47" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
+        <v>value1, vaule 2, operator</v>
       </c>
       <c r="C47" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4131,7 +4084,10 @@
       </c>
       <c r="D47" s="54"/>
       <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
+      <c r="F47" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
+        <v>Hiện tại:[&lt;],[&gt;]</v>
+      </c>
       <c r="G47" s="54"/>
       <c r="H47" s="54"/>
       <c r="I47" s="54"/>
@@ -4155,12 +4111,12 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
-        <v>isMoveLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
+        <v>isPointInScreen</v>
       </c>
       <c r="B48" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
-        <v>element[,second]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C48" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4192,12 +4148,12 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
-        <v>isMoveDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
+        <v>isMoveLeft</v>
       </c>
       <c r="B49" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
+        <v>element[,second]</v>
       </c>
       <c r="C49" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4229,12 +4185,12 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
-        <v>isLocationCompare</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
+        <v>isMoveDown</v>
       </c>
       <c r="B50" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
-        <v>element1,element2,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C50" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4242,10 +4198,7 @@
       </c>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
-      <c r="F50" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
-        <v>coordinate = x/y</v>
-      </c>
+      <c r="F50" s="54"/>
       <c r="G50" s="54"/>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
@@ -4269,20 +4222,23 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
-        <v>move</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
+        <v>isLocationCompare</v>
       </c>
       <c r="B51" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
+        <v>element1,element2,coordinate</v>
       </c>
       <c r="C51" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
+      <c r="F51" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
+        <v>coordinate = x/y</v>
+      </c>
       <c r="G51" s="54"/>
       <c r="H51" s="54"/>
       <c r="I51" s="54"/>
@@ -4306,16 +4262,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
-        <v>elementNotDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
+        <v>move</v>
       </c>
       <c r="B52" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C52" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D52" s="54"/>
       <c r="E52" s="54"/>
@@ -4343,8 +4299,8 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
+        <v>elementNotDisplay</v>
       </c>
       <c r="B53" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -4384,8 +4340,8 @@
         <v>waitForObjectNotPresent</v>
       </c>
       <c r="B54" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C54" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4417,23 +4373,20 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
-        <v>moveByCoordinates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B55" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
-        <v>element,number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C55" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D55" s="54"/>
       <c r="E55" s="54"/>
-      <c r="F55" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
-        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
-      </c>
+      <c r="F55" s="54"/>
       <c r="G55" s="54"/>
       <c r="H55" s="54"/>
       <c r="I55" s="54"/>
@@ -4457,25 +4410,23 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
-        <v>waitForObjectNotInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
+        <v>moveByCoordinates</v>
       </c>
       <c r="B56" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
-        <v>element,second,size,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
+        <v>element,number</v>
       </c>
       <c r="C56" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D56" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
-coordinate = x/y")</f>
-        <v>size: w/h
-coordinate = x/y</v>
-      </c>
+      <c r="D56" s="54"/>
       <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
+      <c r="F56" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
+        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
+      </c>
       <c r="G56" s="54"/>
       <c r="H56" s="54"/>
       <c r="I56" s="54"/>
@@ -4499,18 +4450,23 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
-        <v>waitForObjectContainNotAble</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
+        <v>waitForObjectNotInScreen</v>
       </c>
       <c r="B57" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
+        <v>element,second,size,coordinate</v>
       </c>
       <c r="C57" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D57" s="54"/>
+      <c r="D57" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
+coordinate = x/y")</f>
+        <v>size: w/h
+coordinate = x/y</v>
+      </c>
       <c r="E57" s="54"/>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
@@ -4536,21 +4492,18 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
-        <v>isRotation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
+        <v>waitForObjectContainNotAble</v>
       </c>
       <c r="B58" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
-        <v>element,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C58" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D58" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
-        <v>coordinate = x/y/z/w</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D58" s="54"/>
       <c r="E58" s="54"/>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
@@ -4576,23 +4529,23 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
+        <v>isRotation</v>
       </c>
       <c r="B59" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
-        <v>element,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
+        <v>element,coordinate</v>
       </c>
       <c r="C59" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D59" s="54"/>
+      <c r="D59" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
+        <v>coordinate = x/y/z/w</v>
+      </c>
       <c r="E59" s="54"/>
-      <c r="F59" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
-        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
-      </c>
+      <c r="F59" s="54"/>
       <c r="G59" s="54"/>
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
@@ -4620,19 +4573,19 @@
         <v>getListAudioSource</v>
       </c>
       <c r="B60" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
-        <v>element,count,expects</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
+        <v>element,count</v>
       </c>
       <c r="C60" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D60" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
-        <v>expects = [value1;value2;..]</v>
-      </c>
+      <c r="D60" s="54"/>
       <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
+      <c r="F60" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
+        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
+      </c>
       <c r="G60" s="54"/>
       <c r="H60" s="54"/>
       <c r="I60" s="54"/>
@@ -4656,22 +4609,22 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
-        <v>getImageNameAndColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B61" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
+        <v>element,count,expects</v>
       </c>
       <c r="C61" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
-        <v>image + ","+ color</v>
-      </c>
+      <c r="D61" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
+        <v>expects = [value1;value2;..]</v>
+      </c>
+      <c r="E61" s="54"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
       <c r="H61" s="54"/>
@@ -4696,19 +4649,22 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
-        <v>getTextContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
+        <v>getImageNameAndColor</v>
       </c>
       <c r="B62" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
-        <v>element,component,containt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C62" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
+      <c r="E62" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
+        <v>image + ","+ color</v>
+      </c>
       <c r="F62" s="54"/>
       <c r="G62" s="54"/>
       <c r="H62" s="54"/>
@@ -4733,12 +4689,12 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
+        <v>getTextContain</v>
       </c>
       <c r="B63" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
+        <v>element,component,containt</v>
       </c>
       <c r="C63" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4774,8 +4730,8 @@
         <v>isScale</v>
       </c>
       <c r="B64" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
-        <v>element,component,property,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C64" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4807,21 +4763,18 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
-        <v>swipeRightToLeftEx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B65" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
+        <v>element,component,property,second,expect</v>
       </c>
       <c r="C65" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D65" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
-        <v>bài bao nhiêu</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D65" s="54"/>
       <c r="E65" s="54"/>
       <c r="F65" s="54"/>
       <c r="G65" s="54"/>
@@ -4847,27 +4800,23 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
-        <v>getVideoName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
+        <v>swipeRightToLeftEx</v>
       </c>
       <c r="B66" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C66" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D66" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D66" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
+        <v>bài bao nhiêu</v>
+      </c>
       <c r="E66" s="54"/>
-      <c r="F66" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1</v>
-      </c>
+      <c r="F66" s="54"/>
       <c r="G66" s="54"/>
       <c r="H66" s="54"/>
       <c r="I66" s="54"/>
@@ -4891,8 +4840,8 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
+        <v>getVideoName</v>
       </c>
       <c r="B67" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
@@ -4907,12 +4856,10 @@
       <c r="F67" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4")</f>
+3. indexSplit:1")</f>
         <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4</v>
+3. indexSplit:1</v>
       </c>
       <c r="G67" s="54"/>
       <c r="H67" s="54"/>
@@ -4941,13 +4888,25 @@
         <v>getVideoUrl</v>
       </c>
       <c r="B68" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
-        <v>element,component,key,expected</v>
-      </c>
-      <c r="C68" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
+      </c>
+      <c r="C68" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D68" s="54"/>
       <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
+      <c r="F68" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4</v>
+      </c>
       <c r="G68" s="54"/>
       <c r="H68" s="54"/>
       <c r="I68" s="54"/>
@@ -4971,17 +4930,14 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B69" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
-      </c>
-      <c r="C69" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C69" s="54"/>
       <c r="D69" s="54"/>
       <c r="E69" s="54"/>
       <c r="F69" s="54"/>
@@ -5008,26 +4964,20 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B70" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C70" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D70" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D70" s="54"/>
       <c r="E70" s="54"/>
-      <c r="F70" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
-      </c>
+      <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
       <c r="I70" s="54"/>
@@ -5051,22 +5001,25 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B71" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C71" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D71" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D71" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E71" s="54"/>
       <c r="F71" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G71" s="54"/>
       <c r="H71" s="54"/>
@@ -5091,12 +5044,12 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
-        <v>returnPathReplaceVariable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B72" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
-        <v>string, replaceStr</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C72" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5104,7 +5057,10 @@
       </c>
       <c r="D72" s="54"/>
       <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
+      <c r="F72" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G72" s="54"/>
       <c r="H72" s="54"/>
       <c r="I72" s="54"/>
@@ -5128,12 +5084,12 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
-        <v>returnPathFullName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B73" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C73" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5165,8 +5121,8 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
-        <v>returnPathFullPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B74" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -5202,12 +5158,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B75" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C75" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5215,10 +5171,7 @@
       </c>
       <c r="D75" s="54"/>
       <c r="E75" s="54"/>
-      <c r="F75" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F75" s="54"/>
       <c r="G75" s="54"/>
       <c r="H75" s="54"/>
       <c r="I75" s="54"/>
@@ -5242,8 +5195,8 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B76" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -5256,8 +5209,8 @@
       <c r="D76" s="54"/>
       <c r="E76" s="54"/>
       <c r="F76" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G76" s="54"/>
       <c r="H76" s="54"/>
@@ -5282,20 +5235,23 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B77" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C77" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D77" s="54"/>
       <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
+      <c r="F77" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G77" s="54"/>
       <c r="H77" s="54"/>
       <c r="I77" s="54"/>
@@ -5319,16 +5275,16 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B78" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C78" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D78" s="54"/>
       <c r="E78" s="54"/>
@@ -5356,12 +5312,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B79" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C79" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5393,12 +5349,12 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B80" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C80" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5434,8 +5390,8 @@
         <v>returnChooseTopic</v>
       </c>
       <c r="B81" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C81" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5467,12 +5423,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B82" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C82" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5504,12 +5460,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B83" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C83" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5541,12 +5497,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B84" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C84" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5578,12 +5534,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B85" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C85" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5615,12 +5571,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B86" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C86" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5628,10 +5584,7 @@
       </c>
       <c r="D86" s="54"/>
       <c r="E86" s="54"/>
-      <c r="F86" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F86" s="54"/>
       <c r="G86" s="54"/>
       <c r="H86" s="54"/>
       <c r="I86" s="54"/>
@@ -5655,12 +5608,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
-        <v>setVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B87" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
-        <v>key(exist),value</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C87" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5668,7 +5621,10 @@
       </c>
       <c r="D87" s="54"/>
       <c r="E87" s="54"/>
-      <c r="F87" s="54"/>
+      <c r="F87" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
+      </c>
       <c r="G87" s="54"/>
       <c r="H87" s="54"/>
       <c r="I87" s="54"/>
@@ -5692,12 +5648,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B88" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C88" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5729,12 +5685,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B89" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
       </c>
       <c r="C89" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5770,8 +5726,8 @@
         <v>changeModeTC</v>
       </c>
       <c r="B90" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C90" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5779,10 +5735,7 @@
       </c>
       <c r="D90" s="54"/>
       <c r="E90" s="54"/>
-      <c r="F90" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
-      </c>
+      <c r="F90" s="54"/>
       <c r="G90" s="54"/>
       <c r="H90" s="54"/>
       <c r="I90" s="54"/>
@@ -5806,12 +5759,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B91" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C91" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5820,8 +5773,8 @@
       <c r="D91" s="54"/>
       <c r="E91" s="54"/>
       <c r="F91" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
       </c>
       <c r="G91" s="54"/>
       <c r="H91" s="54"/>
@@ -5846,8 +5799,8 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B92" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
@@ -5860,8 +5813,8 @@
       <c r="D92" s="54"/>
       <c r="E92" s="54"/>
       <c r="F92" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
       </c>
       <c r="G92" s="54"/>
       <c r="H92" s="54"/>
@@ -5886,12 +5839,12 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B93" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C93" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5899,7 +5852,10 @@
       </c>
       <c r="D93" s="54"/>
       <c r="E93" s="54"/>
-      <c r="F93" s="54"/>
+      <c r="F93" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G93" s="54"/>
       <c r="H93" s="54"/>
       <c r="I93" s="54"/>
@@ -5923,12 +5879,12 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
       </c>
       <c r="B94" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
       </c>
       <c r="C94" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5960,20 +5916,20 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B95" s="54"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B95" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
       <c r="C95" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D95" s="54"/>
       <c r="E95" s="54"/>
-      <c r="F95" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F95" s="54"/>
       <c r="G95" s="54"/>
       <c r="H95" s="54"/>
       <c r="I95" s="54"/>
@@ -5997,8 +5953,8 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
       </c>
       <c r="B96" s="54"/>
       <c r="C96" s="54" t="str">
@@ -6008,8 +5964,8 @@
       <c r="D96" s="54"/>
       <c r="E96" s="54"/>
       <c r="F96" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
       </c>
       <c r="G96" s="54"/>
       <c r="H96" s="54"/>
@@ -6034,20 +5990,20 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
-      </c>
-      <c r="B97" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B97" s="54"/>
       <c r="C97" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D97" s="54"/>
       <c r="E97" s="54"/>
-      <c r="F97" s="54"/>
+      <c r="F97" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G97" s="54"/>
       <c r="H97" s="54"/>
       <c r="I97" s="54"/>
@@ -6071,12 +6027,12 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B98" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C98" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -6108,12 +6064,12 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B99" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C99" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -6145,23 +6101,20 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
       </c>
       <c r="B100" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
       </c>
       <c r="C100" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D100" s="54"/>
       <c r="E100" s="54"/>
-      <c r="F100" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F100" s="54"/>
       <c r="G100" s="54"/>
       <c r="H100" s="54"/>
       <c r="I100" s="54"/>
@@ -6185,12 +6138,12 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
       </c>
       <c r="B101" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
+        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
       </c>
       <c r="C101" s="54" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -6198,7 +6151,10 @@
       </c>
       <c r="D101" s="54"/>
       <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
+      <c r="F101" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G101" s="54"/>
       <c r="H101" s="54"/>
       <c r="I101" s="54"/>
@@ -6222,16 +6178,16 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
       </c>
       <c r="B102" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
       </c>
       <c r="C102" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D102" s="54"/>
       <c r="E102" s="54"/>
@@ -6259,23 +6215,20 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
-        <v>swipeMap</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
       </c>
       <c r="B103" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
-        <v>locator,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
       </c>
       <c r="C103" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D103" s="54"/>
       <c r="E103" s="54"/>
-      <c r="F103" s="54" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
-        <v>key file data to get list leson</v>
-      </c>
+      <c r="F103" s="54"/>
       <c r="G103" s="54"/>
       <c r="H103" s="54"/>
       <c r="I103" s="54"/>
@@ -6298,12 +6251,24 @@
       <c r="Z103" s="54"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="54"/>
-      <c r="B104" s="54"/>
-      <c r="C104" s="54"/>
+      <c r="A104" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B104" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
+        <v>element,component,property,key,expect</v>
+      </c>
+      <c r="C104" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D104" s="54"/>
       <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
+      <c r="F104" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G104" s="54"/>
       <c r="H104" s="54"/>
       <c r="I104" s="54"/>
@@ -6326,12 +6291,24 @@
       <c r="Z104" s="54"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="54"/>
-      <c r="B105" s="54"/>
-      <c r="C105" s="54"/>
+      <c r="A105" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
+        <v>comPairImage</v>
+      </c>
+      <c r="B105" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C105" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D105" s="54"/>
       <c r="E105" s="54"/>
-      <c r="F105" s="54"/>
+      <c r="F105" s="54" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+      </c>
       <c r="G105" s="54"/>
       <c r="H105" s="54"/>
       <c r="I105" s="54"/>
